--- a/AtlasData.xlsx
+++ b/AtlasData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="С9009А" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +88,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +129,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,7 +437,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +490,7 @@
       <c r="F2" s="6">
         <v>43</v>
       </c>
-      <c r="G2" s="6">
-        <v>5</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6">
         <v>0.28000000000000003</v>
       </c>
@@ -808,7 +814,7 @@
         <v>50</v>
       </c>
       <c r="B17" s="7">
-        <v>4.05</v>
+        <v>5.05</v>
       </c>
       <c r="C17" s="7">
         <v>3.44</v>
@@ -988,7 +994,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,9 +1044,7 @@
       <c r="F2" s="5">
         <v>38.200000000000003</v>
       </c>
-      <c r="G2" s="5">
-        <v>2.5</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5">
         <v>0.3</v>
       </c>
@@ -1406,7 +1410,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1760,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1802,7 @@
         <v>0.75</v>
       </c>
       <c r="D2" s="5">
-        <v>34.56</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5">
         <v>70</v>
@@ -2229,7 +2233,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2275,7 @@
         <v>0.95</v>
       </c>
       <c r="D2" s="5">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="E2" s="5">
         <v>71.5</v>
@@ -2279,9 +2283,7 @@
       <c r="F2" s="5">
         <v>17.8</v>
       </c>
-      <c r="G2" s="5">
-        <v>0.95</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5">
         <v>0.3</v>
       </c>
@@ -2642,7 +2644,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2686,7 @@
         <v>3.6</v>
       </c>
       <c r="D2" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5">
         <v>52</v>
@@ -3073,7 +3075,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,7 +3117,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5">
         <v>56</v>
@@ -3505,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3968,7 +3970,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,7 +4328,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,7 +4736,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,10 +4786,7 @@
       <c r="F2">
         <v>36.700000000000003</v>
       </c>
-      <c r="G2">
-        <v>2.54</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>0.32</v>
       </c>
     </row>
@@ -5034,6 +5033,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5042,7 +5042,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,9 +5091,6 @@
       </c>
       <c r="F2">
         <v>33.75</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>0.27</v>
@@ -5280,7 +5277,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,9 +5327,7 @@
       <c r="F2" s="5">
         <v>33.75</v>
       </c>
-      <c r="G2" s="5">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5">
         <v>0.27</v>
       </c>
@@ -5591,7 +5586,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5992,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,7 +6030,7 @@
         <v>5.4</v>
       </c>
       <c r="D2" s="5">
-        <v>45.8</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5">
         <v>64</v>
@@ -6115,7 +6110,7 @@
         <v>13.5</v>
       </c>
       <c r="B6" s="5">
-        <v>21.15</v>
+        <v>22.15</v>
       </c>
       <c r="C6" s="5">
         <v>11.22</v>
